--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col9a3-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col9a3-Mag.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6610796666666666</v>
+        <v>0.6459696666666667</v>
       </c>
       <c r="H2">
-        <v>1.983239</v>
+        <v>1.937909</v>
       </c>
       <c r="I2">
-        <v>0.2677179076566869</v>
+        <v>0.2417008406295992</v>
       </c>
       <c r="J2">
-        <v>0.2677179076566868</v>
+        <v>0.2417008406295992</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N2">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q2">
-        <v>0.6201916689234445</v>
+        <v>0.150476695941</v>
       </c>
       <c r="R2">
-        <v>5.581725020311</v>
+        <v>1.354290263469</v>
       </c>
       <c r="S2">
-        <v>0.1454547976820104</v>
+        <v>0.06217076916801585</v>
       </c>
       <c r="T2">
-        <v>0.1454547976820104</v>
+        <v>0.06217076916801585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6610796666666666</v>
+        <v>0.6459696666666667</v>
       </c>
       <c r="H3">
-        <v>1.983239</v>
+        <v>1.937909</v>
       </c>
       <c r="I3">
-        <v>0.2677179076566869</v>
+        <v>0.2417008406295992</v>
       </c>
       <c r="J3">
-        <v>0.2677179076566868</v>
+        <v>0.2417008406295992</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N3">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O3">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P3">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q3">
-        <v>0.5213067113037778</v>
+        <v>0.4345304447268888</v>
       </c>
       <c r="R3">
-        <v>4.691760401734</v>
+        <v>3.910774002541999</v>
       </c>
       <c r="S3">
-        <v>0.1222631099746765</v>
+        <v>0.1795300714615833</v>
       </c>
       <c r="T3">
-        <v>0.1222631099746764</v>
+        <v>0.1795300714615833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.310047666666667</v>
+        <v>1.310047666666666</v>
       </c>
       <c r="H4">
         <v>3.930143</v>
       </c>
       <c r="I4">
-        <v>0.5305309449600247</v>
+        <v>0.4901772306617775</v>
       </c>
       <c r="J4">
-        <v>0.5305309449600246</v>
+        <v>0.4901772306617775</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N4">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O4">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P4">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q4">
-        <v>1.229020781800778</v>
+        <v>0.305171673807</v>
       </c>
       <c r="R4">
-        <v>11.061187036207</v>
+        <v>2.746545064263</v>
       </c>
       <c r="S4">
-        <v>0.2882447122744003</v>
+        <v>0.1260843585794242</v>
       </c>
       <c r="T4">
-        <v>0.2882447122744003</v>
+        <v>0.1260843585794242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.310047666666667</v>
+        <v>1.310047666666666</v>
       </c>
       <c r="H5">
         <v>3.930143</v>
       </c>
       <c r="I5">
-        <v>0.5305309449600247</v>
+        <v>0.4901772306617775</v>
       </c>
       <c r="J5">
-        <v>0.5305309449600246</v>
+        <v>0.4901772306617775</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N5">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O5">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P5">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q5">
-        <v>1.033062541773111</v>
+        <v>0.8812419910482221</v>
       </c>
       <c r="R5">
-        <v>9.297562875958002</v>
+        <v>7.931177919433998</v>
       </c>
       <c r="S5">
-        <v>0.2422862326856243</v>
+        <v>0.3640928720823534</v>
       </c>
       <c r="T5">
-        <v>0.2422862326856242</v>
+        <v>0.3640928720823534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.18674</v>
+        <v>0.4978893333333334</v>
       </c>
       <c r="H6">
-        <v>0.5602199999999999</v>
+        <v>1.493668</v>
       </c>
       <c r="I6">
-        <v>0.07562423198990598</v>
+        <v>0.1862939958592133</v>
       </c>
       <c r="J6">
-        <v>0.07562423198990596</v>
+        <v>0.1862939958592133</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N6">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O6">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P6">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q6">
-        <v>0.1751900687533333</v>
+        <v>0.115981826532</v>
       </c>
       <c r="R6">
-        <v>1.57671061878</v>
+        <v>1.043836438788</v>
       </c>
       <c r="S6">
-        <v>0.0410876786698002</v>
+        <v>0.04791891076498014</v>
       </c>
       <c r="T6">
-        <v>0.0410876786698002</v>
+        <v>0.04791891076498014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.18674</v>
+        <v>0.4978893333333334</v>
       </c>
       <c r="H7">
-        <v>0.5602199999999999</v>
+        <v>1.493668</v>
       </c>
       <c r="I7">
-        <v>0.07562423198990598</v>
+        <v>0.1862939958592133</v>
       </c>
       <c r="J7">
-        <v>0.07562423198990596</v>
+        <v>0.1862939958592133</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N7">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O7">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P7">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q7">
-        <v>0.1472573128133333</v>
+        <v>0.3349198648204444</v>
       </c>
       <c r="R7">
-        <v>1.32531581532</v>
+        <v>3.014278783383999</v>
       </c>
       <c r="S7">
-        <v>0.03453655332010577</v>
+        <v>0.1383750850942331</v>
       </c>
       <c r="T7">
-        <v>0.03453655332010576</v>
+        <v>0.1383750850942331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.311447</v>
+        <v>0.2186933333333333</v>
       </c>
       <c r="H8">
-        <v>0.9343410000000001</v>
+        <v>0.65608</v>
       </c>
       <c r="I8">
-        <v>0.1261269153933825</v>
+        <v>0.08182793284941008</v>
       </c>
       <c r="J8">
-        <v>0.1261269153933825</v>
+        <v>0.08182793284941006</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N8">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O8">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P8">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q8">
-        <v>0.2921838992343334</v>
+        <v>0.05094395592</v>
       </c>
       <c r="R8">
-        <v>2.629655093109001</v>
+        <v>0.4584956032800001</v>
       </c>
       <c r="S8">
-        <v>0.06852647669847522</v>
+        <v>0.02104794303331676</v>
       </c>
       <c r="T8">
-        <v>0.06852647669847522</v>
+        <v>0.02104794303331675</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.311447</v>
+        <v>0.2186933333333333</v>
       </c>
       <c r="H9">
-        <v>0.9343410000000001</v>
+        <v>0.65608</v>
       </c>
       <c r="I9">
-        <v>0.1261269153933825</v>
+        <v>0.08182793284941008</v>
       </c>
       <c r="J9">
-        <v>0.1261269153933825</v>
+        <v>0.08182793284941006</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N9">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O9">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P9">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q9">
-        <v>0.2455973455273334</v>
+        <v>0.1471104856711111</v>
       </c>
       <c r="R9">
-        <v>2.210376109746</v>
+        <v>1.32399437104</v>
       </c>
       <c r="S9">
-        <v>0.05760043869490727</v>
+        <v>0.06077998981609332</v>
       </c>
       <c r="T9">
-        <v>0.05760043869490726</v>
+        <v>0.06077998981609332</v>
       </c>
     </row>
   </sheetData>
